--- a/4-waardelijsten/IMKL-Waardelijsten-changelog-3.0.xlsx
+++ b/4-waardelijsten/IMKL-Waardelijsten-changelog-3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316D490-B49F-468E-8472-6DC11F155BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB706FD-99D7-4513-9C0D-9703BA8A6B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-28920" yWindow="-8010" windowWidth="29040" windowHeight="15720" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,9 @@
       <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>370</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.25">
@@ -825,7 +827,9 @@
       <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>370</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2298,6 +2302,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2500,22 +2519,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2532,21 +2553,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>